--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp2-Bmpr1b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H2">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J2">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +561,22 @@
         <v>5.12336</v>
       </c>
       <c r="O2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P2">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q2">
-        <v>9.262952336977778</v>
+        <v>4.047942826986667</v>
       </c>
       <c r="R2">
-        <v>83.3665710328</v>
+        <v>36.43148544288</v>
       </c>
       <c r="S2">
-        <v>0.4184110992520291</v>
+        <v>0.2146553551283552</v>
       </c>
       <c r="T2">
-        <v>0.4184110992520291</v>
+        <v>0.2146553551283553</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.423951666666667</v>
+        <v>2.370286</v>
       </c>
       <c r="H3">
-        <v>16.271855</v>
+        <v>7.110858</v>
       </c>
       <c r="I3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318013</v>
       </c>
       <c r="J3">
-        <v>0.4774188439413272</v>
+        <v>0.3026841782318014</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N3">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P3">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q3">
-        <v>1.30633706311</v>
+        <v>1.660036120862667</v>
       </c>
       <c r="R3">
-        <v>11.75703356799</v>
+        <v>14.940325087764</v>
       </c>
       <c r="S3">
-        <v>0.05900774468929815</v>
+        <v>0.08802882310344613</v>
       </c>
       <c r="T3">
-        <v>0.05900774468929815</v>
+        <v>0.08802882310344615</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>4.750513</v>
       </c>
       <c r="I4">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J4">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,10 +685,10 @@
         <v>5.12336</v>
       </c>
       <c r="O4">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P4">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q4">
         <v>2.704287587075555</v>
@@ -697,10 +697,10 @@
         <v>24.33858828368</v>
       </c>
       <c r="S4">
-        <v>0.1221537044388027</v>
+        <v>0.1434036588913557</v>
       </c>
       <c r="T4">
-        <v>0.1221537044388027</v>
+        <v>0.1434036588913558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>4.750513</v>
       </c>
       <c r="I5">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="J5">
-        <v>0.1393808158066948</v>
+        <v>0.2022126055089961</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N5">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O5">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P5">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q5">
-        <v>0.3813806846659999</v>
+        <v>1.109011482528222</v>
       </c>
       <c r="R5">
-        <v>3.432426161994</v>
+        <v>9.981103342754</v>
       </c>
       <c r="S5">
-        <v>0.0172271113678921</v>
+        <v>0.0588089466176404</v>
       </c>
       <c r="T5">
-        <v>0.0172271113678921</v>
+        <v>0.0588089466176404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H6">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I6">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J6">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>5.12336</v>
       </c>
       <c r="O6">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P6">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q6">
-        <v>6.29740128375111</v>
+        <v>3.905201463288888</v>
       </c>
       <c r="R6">
-        <v>56.67661155376</v>
+        <v>35.14681316959999</v>
       </c>
       <c r="S6">
-        <v>0.2844560241389659</v>
+        <v>0.2070860293187658</v>
       </c>
       <c r="T6">
-        <v>0.2844560241389659</v>
+        <v>0.2070860293187658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.687463666666666</v>
+        <v>2.286703333333333</v>
       </c>
       <c r="H7">
-        <v>11.062391</v>
+        <v>6.860109999999999</v>
       </c>
       <c r="I7">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="J7">
-        <v>0.3245723319466</v>
+        <v>0.2920107190904054</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N7">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O7">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P7">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q7">
-        <v>0.888110874262</v>
+        <v>1.601498777375556</v>
       </c>
       <c r="R7">
-        <v>7.992997868358</v>
+        <v>14.41348899638</v>
       </c>
       <c r="S7">
-        <v>0.04011630780763407</v>
+        <v>0.08492468977163961</v>
       </c>
       <c r="T7">
-        <v>0.04011630780763408</v>
+        <v>0.08492468977163961</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H8">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I8">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J8">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,22 +933,22 @@
         <v>5.12336</v>
       </c>
       <c r="O8">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="P8">
-        <v>0.8764025646701328</v>
+        <v>0.7091726973716084</v>
       </c>
       <c r="Q8">
-        <v>1.137509449902222</v>
+        <v>2.716054806471111</v>
       </c>
       <c r="R8">
-        <v>10.23758504912</v>
+        <v>24.44449325824</v>
       </c>
       <c r="S8">
-        <v>0.05138173684033516</v>
+        <v>0.1440276540331316</v>
       </c>
       <c r="T8">
-        <v>0.05138173684033516</v>
+        <v>0.1440276540331316</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6660723333333334</v>
+        <v>1.590394666666667</v>
       </c>
       <c r="H9">
-        <v>1.998217</v>
+        <v>4.771184</v>
       </c>
       <c r="I9">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="J9">
-        <v>0.05862800830537804</v>
+        <v>0.2030924971687972</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.240846</v>
+        <v>0.7003526666666667</v>
       </c>
       <c r="N9">
-        <v>0.722538</v>
+        <v>2.101058</v>
       </c>
       <c r="O9">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="P9">
-        <v>0.1235974353298672</v>
+        <v>0.2908273026283917</v>
       </c>
       <c r="Q9">
-        <v>0.160420857194</v>
+        <v>1.113837145852445</v>
       </c>
       <c r="R9">
-        <v>1.443787714746</v>
+        <v>10.024534312672</v>
       </c>
       <c r="S9">
-        <v>0.007246271465042879</v>
+        <v>0.05906484313566556</v>
       </c>
       <c r="T9">
-        <v>0.007246271465042879</v>
+        <v>0.05906484313566556</v>
       </c>
     </row>
   </sheetData>
